--- a/target/test-classes/Testdata/TestData.xlsx
+++ b/target/test-classes/Testdata/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>SpaCeylon Searched</t>
+  </si>
+  <si>
+    <t>SpaCeylon Selected</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Testdata/TestData.xlsx
+++ b/target/test-classes/Testdata/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>

--- a/target/test-classes/Testdata/TestData.xlsx
+++ b/target/test-classes/Testdata/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>
